--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -116,16 +116,77 @@
   </si>
   <si>
     <t xml:space="preserve">sonu3791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shameek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tushare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,13 +217,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -215,11 +269,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -240,10 +294,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -264,7 +318,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="0" width="15.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="10.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="8.53"/>
@@ -285,7 +339,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -392,7 +446,7 @@
       <c r="J2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="0" t="s">
@@ -403,7 +457,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L3" s="3"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -510,6 +564,113 @@
       </c>
       <c r="AJ12" s="0" t="n">
         <v>34</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16695" windowHeight="6075" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6075" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>TestCase</t>
   </si>
@@ -194,6 +194,30 @@
   </si>
   <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>9905040207</t>
+  </si>
+  <si>
+    <t>J8965230</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>91</t>
   </si>
 </sst>
 </file>
@@ -237,12 +261,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -810,14 +835,38 @@
       <c r="C18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>35</v>
       </c>
+      <c r="G18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -827,14 +876,38 @@
       <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>35</v>
       </c>
+      <c r="G19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -844,14 +917,38 @@
       <c r="C20" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>41</v>
       </c>
+      <c r="G20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -861,14 +958,38 @@
       <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>45</v>
       </c>
+      <c r="G21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -878,14 +999,38 @@
       <c r="C22" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>48</v>
       </c>
+      <c r="G22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -895,11 +1040,35 @@
       <c r="C23" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>51</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6075" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16695" windowHeight="6075" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t>sonu</t>
-  </si>
-  <si>
     <t>kumar</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Ms.</t>
   </si>
   <si>
-    <t>shameek</t>
-  </si>
-  <si>
     <t>vats</t>
   </si>
   <si>
@@ -218,6 +212,12 @@
   </si>
   <si>
     <t>91</t>
+  </si>
+  <si>
+    <t>Sonu</t>
+  </si>
+  <si>
+    <t>Shameek</t>
   </si>
 </sst>
 </file>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,29 +744,32 @@
       <c r="J12">
         <v>9</v>
       </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
       <c r="L12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T12">
         <v>18</v>
@@ -830,245 +833,253 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
       <c r="G18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" t="s">
         <v>62</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B27" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="5" t="s">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K39" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="L39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K19" t="s">
+      <c r="H40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" t="s">
+        <v>59</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="M40" t="s">
         <v>62</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" t="s">
-        <v>59</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -572,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>21</v>
@@ -618,6 +618,9 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
       <c r="K7" s="5" t="s">
         <v>29</v>
       </c>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -82,25 +82,19 @@
     <t xml:space="preserve">Mumbai</t>
   </si>
   <si>
-    <t xml:space="preserve">London</t>
+    <t xml:space="preserve">DXB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu3791</t>
   </si>
   <si>
     <t xml:space="preserve">IndiGo Airlines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu3791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DXB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emirates</t>
   </si>
   <si>
     <t xml:space="preserve">Etihad</t>
@@ -130,6 +124,9 @@
     <t xml:space="preserve">Spicejet</t>
   </si>
   <si>
+    <t xml:space="preserve">Air Arabia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mr.</t>
   </si>
   <si>
@@ -145,40 +142,52 @@
     <t xml:space="preserve">1990</t>
   </si>
   <si>
+    <t xml:space="preserve">Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9905040207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J8965230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shameek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1992</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aug</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9905040207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J8965230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shameek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1992</t>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
   </si>
   <si>
     <t xml:space="preserve">Miss</t>
@@ -190,9 +199,6 @@
     <t xml:space="preserve">2008</t>
   </si>
   <si>
-    <t xml:space="preserve">Jan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Master</t>
   </si>
   <si>
@@ -205,7 +211,7 @@
     <t xml:space="preserve">2009</t>
   </si>
   <si>
-    <t xml:space="preserve">Feb</t>
+    <t xml:space="preserve">Ravi</t>
   </si>
   <si>
     <t xml:space="preserve">priya</t>
@@ -217,16 +223,13 @@
     <t xml:space="preserve">2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Mar</t>
-  </si>
-  <si>
     <t xml:space="preserve">lata</t>
   </si>
   <si>
     <t xml:space="preserve">dev</t>
   </si>
   <si>
-    <t xml:space="preserve">Apr</t>
+    <t xml:space="preserve">Eima</t>
   </si>
 </sst>
 </file>
@@ -270,13 +273,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF3F7F5F"/>
+      <color rgb="FF000000"/>
       <name val="Monospace"/>
       <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF3F7F5F"/>
       <name val="Monospace"/>
       <family val="0"/>
     </font>
@@ -446,10 +449,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -553,10 +556,10 @@
       <c r="A2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="0" t="n">
@@ -572,15 +575,15 @@
         <v>8</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="0" t="s">
@@ -591,30 +594,26 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="K3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K5" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,7 +621,12 @@
         <v>5</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -740,250 +744,373 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="G18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="J18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="M18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="5" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="B19" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="D19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="G19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="K28" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I29" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="J29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K39" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="M39" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="G41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="K41" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="M41" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -267,10 +267,19 @@
     <t xml:space="preserve">27-Oct-2018</t>
   </si>
   <si>
+    <t xml:space="preserve">Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-August-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bangalore</t>
   </si>
   <si>
-    <t xml:space="preserve">Mumbai</t>
+    <t xml:space="preserve">30-September-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for three segment and for Multi pax</t>
   </si>
 </sst>
 </file>
@@ -508,8 +517,8 @@
   </sheetPr>
   <dimension ref="A1:AJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1094,6 +1103,9 @@
       <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
@@ -1102,24 +1114,32 @@
       <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D50" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C52" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>77</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="0"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="sonu.kumar@techtreeit.com"/>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -290,7 +290,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -327,12 +327,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -434,7 +428,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -518,7 +512,7 @@
   <dimension ref="A1:AJ54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -648,11 +642,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
@@ -677,7 +674,7 @@
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1135,10 +1132,10 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="0"/>
+      <c r="C54" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -79,197 +79,198 @@
     <t xml:space="preserve">DXB</t>
   </si>
   <si>
+    <t xml:space="preserve">18-July-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-August-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spicejet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu3791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiGo Airlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air india express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharjah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flydubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etihad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish airline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Gal1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Gal2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Gal3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOExp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Jul-1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9905040207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J8965230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Jul-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shameek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Aug-1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-Aug-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-Oct-1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-Oct-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tushare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Jul-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Aug-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-Oct-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Jul-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Aug-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-Oct-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Multicity</t>
+  </si>
+  <si>
     <t xml:space="preserve">26-July-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">26-August-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu3791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndiGo Airlines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etihad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color rgb="FF3F7F5F"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Oman</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF3F7F5F"/>
-        <rFont val="Monospace"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Air</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spicejet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOExp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9905040207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J8965230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shameek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Aug-1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-Aug-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-Oct-1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-Oct-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tushare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prince</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Aug-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ravi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-Oct-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kumari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Aug-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-Oct-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai</t>
-  </si>
-  <si>
     <t xml:space="preserve">30-August-2019</t>
   </si>
   <si>
@@ -277,9 +278,6 @@
   </si>
   <si>
     <t xml:space="preserve">30-September-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for three segment and for Multi pax</t>
   </si>
 </sst>
 </file>
@@ -345,10 +343,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF3F7F5F"/>
-      <name val="Monospace"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -428,7 +425,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,14 +509,15 @@
   <dimension ref="A1:AJ54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.65"/>
@@ -645,74 +643,212 @@
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="I10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -826,274 +962,277 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="G19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
       </c>
@@ -1112,31 +1251,26 @@
         <v>18</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="1" t="s">
-        <v>77</v>
+      <c r="C52" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="7"/>
-    </row>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="sonu.kumar@techtreeit.com"/>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -55,6 +55,18 @@
     <t xml:space="preserve">Password</t>
   </si>
   <si>
+    <t xml:space="preserve">Onward Seat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return Seat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baggage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Card number</t>
   </si>
   <si>
@@ -76,79 +88,91 @@
     <t xml:space="preserve">Delhi</t>
   </si>
   <si>
+    <t xml:space="preserve">Abha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-July-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-August-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLYDUBAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu3791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai</t>
+  </si>
+  <si>
     <t xml:space="preserve">DXB</t>
   </si>
   <si>
     <t xml:space="preserve">18-July-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">26-August-2019</t>
+    <t xml:space="preserve">IndiGo Airlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air india express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharjah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flydubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etihad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish airline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Gal1</t>
   </si>
   <si>
     <t xml:space="preserve">Spicejet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu3791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndiGo Airlines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kochi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air india express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharjah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flydubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etihad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkish airline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal1</t>
   </si>
   <si>
     <t xml:space="preserve">TestCase_Gal2</t>
@@ -288,7 +312,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -332,20 +356,6 @@
       <name val="Monospace"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF3F7F5F"/>
-      <name val="Monospace"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -396,7 +406,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -418,14 +428,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,7 +491,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF3F7F5F"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -509,7 +511,7 @@
   <dimension ref="A1:AJ54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,7 +528,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16"/>
@@ -590,8 +592,18 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="AB1" s="3"/>
@@ -604,57 +616,66 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
@@ -665,24 +686,24 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>2</v>
@@ -694,24 +715,24 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
@@ -723,12 +744,12 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1</v>
@@ -740,24 +761,24 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>2</v>
@@ -769,24 +790,24 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1</v>
@@ -798,24 +819,24 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>2</v>
@@ -827,24 +848,28 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="0"/>
+        <v>49</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,276 +987,276 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -1245,29 +1270,29 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="7" t="s">
-        <v>84</v>
+      <c r="C52" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Delhi</t>
   </si>
   <si>
-    <t xml:space="preserve">Abha</t>
+    <t xml:space="preserve">DXB</t>
   </si>
   <si>
     <t xml:space="preserve">20-July-2019</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">26-August-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">FLYDUBAI</t>
+    <t xml:space="preserve">IndiGo Airlines</t>
   </si>
   <si>
     <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
@@ -106,6 +106,9 @@
     <t xml:space="preserve">sonu3791</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">YES</t>
   </si>
   <si>
@@ -115,15 +118,9 @@
     <t xml:space="preserve">Mumbai</t>
   </si>
   <si>
-    <t xml:space="preserve">DXB</t>
-  </si>
-  <si>
     <t xml:space="preserve">18-July-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">IndiGo Airlines</t>
-  </si>
-  <si>
     <t xml:space="preserve">TestCase_LCC3</t>
   </si>
   <si>
@@ -241,7 +238,7 @@
     <t xml:space="preserve">Miss</t>
   </si>
   <si>
-    <t xml:space="preserve">tushare</t>
+    <t xml:space="preserve">Tushare</t>
   </si>
   <si>
     <t xml:space="preserve">7-Jul-2008</t>
@@ -250,7 +247,7 @@
     <t xml:space="preserve">Master</t>
   </si>
   <si>
-    <t xml:space="preserve">prince</t>
+    <t xml:space="preserve">Prince</t>
   </si>
   <si>
     <t xml:space="preserve">deo</t>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t xml:space="preserve">30-September-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
   </si>
 </sst>
 </file>
@@ -312,7 +312,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -349,6 +349,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -406,7 +412,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,7 +433,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,10 +522,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ54"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -616,7 +630,7 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -629,19 +643,19 @@
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -657,18 +671,18 @@
         <v>28</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>32</v>
@@ -686,18 +700,18 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>32</v>
@@ -715,18 +729,18 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>32</v>
@@ -744,35 +758,35 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>32</v>
@@ -790,18 +804,18 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>32</v>
@@ -819,18 +833,18 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>32</v>
@@ -848,32 +862,32 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="0"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -987,276 +1001,276 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="I39" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="E40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H40" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H41" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -1273,29 +1287,39 @@
         <v>21</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="4" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E62" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" display="sonu.kumar@techtreeit.com"/>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14820" windowHeight="6075" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="E1:K17"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,299 +21,298 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="94">
-  <si>
-    <t xml:space="preserve">TestCase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Origin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JourneyDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReturnDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Infants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flightname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onward Seat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return Seat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baggage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Card number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Card name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exp Month</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exp year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DXB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-August-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndiGo Airlines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu3791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kochi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air india express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharjah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flydubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etihad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkish airline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spicejet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOExp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9905040207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J8965230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shameek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Aug-1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-Aug-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-Oct-1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-Oct-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tushare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Aug-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ravi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-Oct-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kumari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Aug-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-Oct-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Multicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-August-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-September-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>JourneyDate</t>
+  </si>
+  <si>
+    <t>ReturnDate</t>
+  </si>
+  <si>
+    <t>Number of Adult</t>
+  </si>
+  <si>
+    <t>Number of Child</t>
+  </si>
+  <si>
+    <t>Number of Infants</t>
+  </si>
+  <si>
+    <t>Flightname</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Onward Seat</t>
+  </si>
+  <si>
+    <t>Return Seat</t>
+  </si>
+  <si>
+    <t>Baggage</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Card number</t>
+  </si>
+  <si>
+    <t>Card name</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>Exp Month</t>
+  </si>
+  <si>
+    <t>Exp year</t>
+  </si>
+  <si>
+    <t>TestCase_LCC1</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>DXB</t>
+  </si>
+  <si>
+    <t>20-July-2019</t>
+  </si>
+  <si>
+    <t>26-August-2019</t>
+  </si>
+  <si>
+    <t>IndiGo Airlines</t>
+  </si>
+  <si>
+    <t>sonu.kumar@techtreeit.com</t>
+  </si>
+  <si>
+    <t>sonu3791</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>TestCase_LCC2</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>18-July-2019</t>
+  </si>
+  <si>
+    <t>TestCase_LCC3</t>
+  </si>
+  <si>
+    <t>kochi</t>
+  </si>
+  <si>
+    <t>Air india express</t>
+  </si>
+  <si>
+    <t>TestCase_LCC4</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Sharjah</t>
+  </si>
+  <si>
+    <t>Air Arabia</t>
+  </si>
+  <si>
+    <t>TestCase_LCC5</t>
+  </si>
+  <si>
+    <t>Flydubai</t>
+  </si>
+  <si>
+    <t>TestCase_Amd1</t>
+  </si>
+  <si>
+    <t>Etihad</t>
+  </si>
+  <si>
+    <t>TestCase_Amd2</t>
+  </si>
+  <si>
+    <t>Emirates</t>
+  </si>
+  <si>
+    <t>TestCase_Amd3</t>
+  </si>
+  <si>
+    <t>Turkish airline</t>
+  </si>
+  <si>
+    <t>TestCase_Gal1</t>
+  </si>
+  <si>
+    <t>Spicejet</t>
+  </si>
+  <si>
+    <t>TestCase_Gal2</t>
+  </si>
+  <si>
+    <t>TestCase_Gal3</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>DOExp</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Sonu</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>7-Jul-1991</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>9905040207</t>
+  </si>
+  <si>
+    <t>J8965230</t>
+  </si>
+  <si>
+    <t>7-Jul-2020</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Shameek</t>
+  </si>
+  <si>
+    <t>vats</t>
+  </si>
+  <si>
+    <t>17-Aug-1991</t>
+  </si>
+  <si>
+    <t>18-Aug-2020</t>
+  </si>
+  <si>
+    <t>Shanu</t>
+  </si>
+  <si>
+    <t>27-Oct-1991</t>
+  </si>
+  <si>
+    <t>20-Oct-2020</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Tushare</t>
+  </si>
+  <si>
+    <t>7-Jul-2008</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>deo</t>
+  </si>
+  <si>
+    <t>17-Aug-2008</t>
+  </si>
+  <si>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>27-Oct-2008</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>kumari</t>
+  </si>
+  <si>
+    <t>7-Jul-2018</t>
+  </si>
+  <si>
+    <t>lata</t>
+  </si>
+  <si>
+    <t>dev</t>
+  </si>
+  <si>
+    <t>17-Aug-2018</t>
+  </si>
+  <si>
+    <t>Eima</t>
+  </si>
+  <si>
+    <t>27-Oct-2018</t>
+  </si>
+  <si>
+    <t>TestCase_Multicity</t>
+  </si>
+  <si>
+    <t>26-July-2019</t>
+  </si>
+  <si>
+    <t>30-August-2019</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>30-September-2019</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Browsername</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -322,28 +322,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -360,7 +345,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -379,7 +363,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -387,73 +371,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -512,52 +447,326 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AJ62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="8.57"/>
+    <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="13.85546875" style="1" customWidth="1"/>
+    <col min="20" max="21" width="15.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" style="1" customWidth="1"/>
+    <col min="27" max="1025" width="8.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:36" ht="23.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,7 +827,9 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3"/>
+      <c r="U1" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="V1" s="3"/>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -630,7 +841,7 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -646,13 +857,13 @@
       <c r="E2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -674,7 +885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -690,20 +901,20 @@
       <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -719,20 +930,20 @@
       <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -748,37 +959,37 @@
       <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -794,20 +1005,20 @@
       <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="1">
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -823,20 +1034,20 @@
       <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="1">
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -852,20 +1063,20 @@
       <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
@@ -873,7 +1084,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
@@ -881,125 +1092,125 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:36">
       <c r="A12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:36">
       <c r="I13" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:36">
+      <c r="A15" s="1">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>6</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="1">
         <v>7</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15" s="1">
         <v>8</v>
       </c>
-      <c r="J15" s="1" t="n">
+      <c r="J15" s="1">
         <v>9</v>
       </c>
-      <c r="K15" s="1" t="n">
+      <c r="K15" s="1">
         <v>10</v>
       </c>
-      <c r="L15" s="1" t="n">
+      <c r="L15" s="1">
         <v>11</v>
       </c>
-      <c r="M15" s="1" t="n">
+      <c r="M15" s="1">
         <v>12</v>
       </c>
-      <c r="N15" s="1" t="n">
+      <c r="N15" s="1">
         <v>13</v>
       </c>
-      <c r="O15" s="1" t="n">
+      <c r="O15" s="1">
         <v>14</v>
       </c>
-      <c r="P15" s="1" t="n">
+      <c r="P15" s="1">
         <v>15</v>
       </c>
-      <c r="Q15" s="1" t="n">
+      <c r="Q15" s="1">
         <v>16</v>
       </c>
-      <c r="R15" s="1" t="n">
+      <c r="R15" s="1">
         <v>17</v>
       </c>
-      <c r="S15" s="1" t="n">
+      <c r="S15" s="1">
         <v>18</v>
       </c>
-      <c r="T15" s="1" t="n">
+      <c r="T15" s="1">
         <v>18</v>
       </c>
-      <c r="U15" s="1" t="n">
+      <c r="U15" s="1">
         <v>19</v>
       </c>
-      <c r="V15" s="1" t="n">
+      <c r="V15" s="1">
         <v>20</v>
       </c>
-      <c r="W15" s="1" t="n">
+      <c r="W15" s="1">
         <v>21</v>
       </c>
-      <c r="X15" s="1" t="n">
+      <c r="X15" s="1">
         <v>22</v>
       </c>
-      <c r="Y15" s="1" t="n">
+      <c r="Y15" s="1">
         <v>23</v>
       </c>
-      <c r="Z15" s="1" t="n">
+      <c r="Z15" s="1">
         <v>24</v>
       </c>
-      <c r="AA15" s="1" t="n">
+      <c r="AA15" s="1">
         <v>25</v>
       </c>
-      <c r="AB15" s="1" t="n">
+      <c r="AB15" s="1">
         <v>26</v>
       </c>
-      <c r="AC15" s="1" t="n">
+      <c r="AC15" s="1">
         <v>27</v>
       </c>
-      <c r="AD15" s="1" t="n">
+      <c r="AD15" s="1">
         <v>28</v>
       </c>
-      <c r="AE15" s="1" t="n">
+      <c r="AE15" s="1">
         <v>29</v>
       </c>
-      <c r="AF15" s="1" t="n">
+      <c r="AF15" s="1">
         <v>30</v>
       </c>
-      <c r="AG15" s="1" t="n">
+      <c r="AG15" s="1">
         <v>31</v>
       </c>
-      <c r="AH15" s="1" t="n">
+      <c r="AH15" s="1">
         <v>32</v>
       </c>
-      <c r="AI15" s="1" t="n">
+      <c r="AI15" s="1">
         <v>33</v>
       </c>
-      <c r="AJ15" s="1" t="n">
+      <c r="AJ15" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9">
       <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
@@ -1007,7 +1218,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1036,7 +1247,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -1065,7 +1276,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1094,7 +1305,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
@@ -1123,7 +1334,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
@@ -1152,7 +1363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -1181,7 +1392,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -1210,7 +1421,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -1239,7 +1450,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -1268,7 +1479,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>88</v>
       </c>
@@ -1282,7 +1493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5">
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
@@ -1293,7 +1504,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5">
       <c r="C51" s="1" t="s">
         <v>31</v>
       </c>
@@ -1301,7 +1512,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5">
       <c r="C52" s="1" t="s">
         <v>91</v>
       </c>
@@ -1309,9 +1520,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0"/>
+    <row r="54" spans="1:5"/>
+    <row r="62" spans="1:5">
+      <c r="B62"/>
       <c r="C62" s="4"/>
       <c r="D62" s="1" t="s">
         <v>93</v>
@@ -1322,14 +1533,107 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" display="sonu.kumar@techtreeit.com"/>
+    <hyperlink ref="J2" r:id="rId1"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="113">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -92,6 +92,9 @@
     <t xml:space="preserve">Browsername</t>
   </si>
   <si>
+    <t xml:space="preserve">Preferred airlines</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestCase_LCC1</t>
   </si>
   <si>
@@ -140,6 +143,9 @@
     <t xml:space="preserve">TestCase_LCC2</t>
   </si>
   <si>
+    <t xml:space="preserve">Mumbai</t>
+  </si>
+  <si>
     <t xml:space="preserve">15-July-2019</t>
   </si>
   <si>
@@ -222,9 +228,6 @@
   </si>
   <si>
     <t xml:space="preserve">26-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai</t>
   </si>
   <si>
     <t xml:space="preserve">30-August-2019</t>
@@ -569,8 +572,8 @@
   </sheetPr>
   <dimension ref="A1:AJ93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -597,7 +600,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="8.57"/>
@@ -672,6 +675,9 @@
       </c>
       <c r="W1" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -685,19 +691,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1</v>
@@ -709,66 +715,66 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
@@ -780,66 +786,66 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>2</v>
@@ -851,57 +857,57 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
@@ -913,48 +919,48 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1</v>
@@ -966,48 +972,48 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>2</v>
@@ -1019,48 +1025,48 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1</v>
@@ -1072,48 +1078,48 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>2</v>
@@ -1125,48 +1131,48 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>2</v>
@@ -1178,48 +1184,48 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>2</v>
@@ -1231,48 +1237,48 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>2</v>
@@ -1284,27 +1290,62 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+      <c r="F15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
@@ -1334,68 +1375,458 @@
       <c r="AI15" s="0"/>
       <c r="AJ15" s="0"/>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="0"/>
+      <c r="F29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -1409,29 +1840,29 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1545,10 +1976,10 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="4"/>
       <c r="D62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1559,97 +1990,97 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1660,89 +2091,89 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1756,89 +2187,89 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1870,82 +2301,82 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -95,6 +95,12 @@
     <t xml:space="preserve">Preferred airlines</t>
   </si>
   <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestCase_LCC1</t>
   </si>
   <si>
@@ -140,6 +146,15 @@
     <t xml:space="preserve">chrome</t>
   </si>
   <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestCase_LCC2</t>
   </si>
   <si>
@@ -239,9 +254,6 @@
     <t xml:space="preserve">30-September-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">DOB</t>
   </si>
   <si>
@@ -270,9 +282,6 @@
   </si>
   <si>
     <t xml:space="preserve">7-Jul-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
   </si>
   <si>
     <t xml:space="preserve">Ms.</t>
@@ -570,10 +579,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ93"/>
+  <dimension ref="A1:AT93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y3" activeCellId="0" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,9 +609,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="15.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="7.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="1" width="8.57"/>
   </cols>
   <sheetData>
@@ -678,6 +687,12 @@
       </c>
       <c r="X1" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
@@ -691,19 +706,19 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>1</v>
@@ -715,138 +730,147 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F4" s="1" t="n">
         <v>2</v>
       </c>
@@ -857,58 +881,58 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
@@ -919,49 +943,49 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="1" t="n">
         <v>1</v>
       </c>
@@ -972,49 +996,49 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F7" s="1" t="n">
         <v>2</v>
       </c>
@@ -1025,49 +1049,49 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F8" s="1" t="n">
         <v>1</v>
       </c>
@@ -1078,49 +1102,49 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="1" t="n">
         <v>2</v>
       </c>
@@ -1131,102 +1155,102 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F11" s="1" t="n">
         <v>2</v>
       </c>
@@ -1237,49 +1261,49 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F12" s="1" t="n">
         <v>2</v>
       </c>
@@ -1290,18 +1314,18 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>1</v>
@@ -1316,7 +1340,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>2</v>
@@ -1334,7 +1358,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="1" t="n">
@@ -1377,7 +1401,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>2</v>
@@ -1391,7 +1415,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>3</v>
@@ -1405,7 +1429,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>4</v>
@@ -1419,7 +1443,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>5</v>
@@ -1433,10 +1457,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>1</v>
@@ -1450,10 +1474,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>2</v>
@@ -1467,10 +1491,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>2</v>
@@ -1484,10 +1508,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>2</v>
@@ -1501,10 +1525,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>3</v>
@@ -1518,10 +1542,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>4</v>
@@ -1535,10 +1559,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>5</v>
@@ -1552,7 +1576,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>1</v>
@@ -1566,7 +1590,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>2</v>
@@ -1580,7 +1604,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E29" s="0"/>
       <c r="F29" s="1" t="n">
@@ -1595,7 +1619,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>2</v>
@@ -1609,7 +1633,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>3</v>
@@ -1623,7 +1647,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>4</v>
@@ -1637,7 +1661,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>5</v>
@@ -1651,10 +1675,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>1</v>
@@ -1668,10 +1692,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>2</v>
@@ -1685,10 +1709,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -1702,10 +1726,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>2</v>
@@ -1719,10 +1743,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>3</v>
@@ -1736,10 +1760,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>4</v>
@@ -1753,10 +1777,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>5</v>
@@ -1826,7 +1850,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -1840,29 +1864,29 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,16 +1994,49 @@
       </c>
       <c r="AI60" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="AJ60" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK60" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL60" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM60" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN60" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO60" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP60" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ60" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR60" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS60" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT60" s="1" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="4"/>
       <c r="D62" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1990,97 +2047,97 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="H71" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2091,89 +2148,89 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="I79" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2187,89 +2244,89 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2301,82 +2358,82 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="115">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -158,91 +158,88 @@
     <t xml:space="preserve">TestCase_LCC2</t>
   </si>
   <si>
+    <t xml:space="preserve">15-July-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-August-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-July-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air India Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharjah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLYDUBAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etihad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish airline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Gal1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Gal2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Gal3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish Airlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiGo Airlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Multicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DXB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-July-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-August-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndiGo Airlines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firefox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kochi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air India Express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharjah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLYDUBAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etihad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkish airline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkish Airlines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Multicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DXB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-July-2019</t>
   </si>
   <si>
     <t xml:space="preserve">30-August-2019</t>
@@ -581,8 +578,8 @@
   </sheetPr>
   <dimension ref="A1:AT93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y3" activeCellId="0" sqref="Y3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -789,28 +786,22 @@
         <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>32</v>
@@ -852,24 +843,24 @@
         <v>39</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>2</v>
@@ -881,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
@@ -919,31 +910,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>32</v>
@@ -972,19 +957,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1</v>
@@ -996,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
@@ -1025,7 +1010,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -1034,10 +1019,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>2</v>
@@ -1049,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
@@ -1078,7 +1063,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -1087,22 +1072,22 @@
         <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>32</v>
@@ -1131,7 +1116,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -1140,10 +1125,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>2</v>
@@ -1155,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
@@ -1184,7 +1169,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -1193,10 +1178,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>2</v>
@@ -1208,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
@@ -1237,7 +1222,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -1246,22 +1231,22 @@
         <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
@@ -1290,7 +1275,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
@@ -1299,10 +1284,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>2</v>
@@ -1314,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>32</v>
@@ -1338,9 +1323,9 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>2</v>
@@ -1351,14 +1336,16 @@
       <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="0"/>
+      <c r="I14" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="1" t="n">
@@ -1401,7 +1388,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>2</v>
@@ -1415,7 +1402,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>3</v>
@@ -1429,7 +1416,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>4</v>
@@ -1443,7 +1430,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>5</v>
@@ -1474,10 +1461,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>2</v>
@@ -1491,10 +1478,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>2</v>
@@ -1525,10 +1512,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>3</v>
@@ -1542,10 +1529,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>4</v>
@@ -1559,10 +1546,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>5</v>
@@ -1590,7 +1577,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>2</v>
@@ -1604,7 +1591,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E29" s="0"/>
       <c r="F29" s="1" t="n">
@@ -1619,7 +1606,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>2</v>
@@ -1633,7 +1620,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>3</v>
@@ -1647,7 +1634,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>4</v>
@@ -1661,7 +1648,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>5</v>
@@ -1692,10 +1679,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>2</v>
@@ -1709,10 +1696,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -1743,10 +1730,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>3</v>
@@ -1760,10 +1747,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>4</v>
@@ -1777,10 +1764,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>5</v>
@@ -1850,7 +1837,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -1867,26 +1854,26 @@
         <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,36 +2034,36 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="E70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>42</v>
@@ -2084,28 +2071,28 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="E71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>42</v>
@@ -2113,28 +2100,28 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>42</v>
@@ -2148,28 +2135,28 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>42</v>
@@ -2177,28 +2164,28 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="E80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H80" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>42</v>
@@ -2206,28 +2193,28 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="E81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H81" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>42</v>
@@ -2244,28 +2231,28 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="E91" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>42</v>
@@ -2273,28 +2260,28 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="E92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H92" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>42</v>
@@ -2302,28 +2289,28 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H93" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>42</v>
@@ -2358,13 +2345,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>32</v>
@@ -2375,18 +2362,18 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -2394,36 +2381,36 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2433,7 +2420,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="119">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -110,262 +110,274 @@
     <t xml:space="preserve">Dubai</t>
   </si>
   <si>
+    <t xml:space="preserve">18-July-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hahn Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu3791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000000000000051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-July-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiGo Airlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-August-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air India Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharjah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLYDUBAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-July-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-August-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etihad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Amd3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish airline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Gal1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Gal2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_Gal3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkish Airlines</t>
+  </si>
+  <si>
     <t xml:space="preserve">23-July-2019</t>
   </si>
   <si>
+    <t xml:space="preserve">15-July-2019</t>
+  </si>
+  <si>
     <t xml:space="preserve">29-July-2019</t>
   </si>
   <si>
+    <t xml:space="preserve">TestCase_Multicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DXB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-July-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-August-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangalore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-September-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOExp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Jul-1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9905040207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J8965230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Jul-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shameek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Aug-1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-Aug-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-Oct-1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-Oct-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tushare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Jul-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Aug-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-Oct-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">priya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Jul-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Aug-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27-Oct-2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kochi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20-July-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air india express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flydubai</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spicejet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu3791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000000000000051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John doe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-August-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kochi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air India Express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharjah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLYDUBAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etihad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Amd3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkish airline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Gal3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkish Airlines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndiGo Airlines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_Multicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DXB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-August-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30-September-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOExp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sonu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9905040207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J8965230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shameek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Aug-1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-Aug-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shanu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-Oct-1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-Oct-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tushare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Aug-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ravi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-Oct-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kumari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Jul-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Aug-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27-Oct-2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kochi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Air india express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flydubai</t>
   </si>
 </sst>
 </file>
@@ -470,7 +482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -492,6 +504,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,8 +594,8 @@
   </sheetPr>
   <dimension ref="A1:AT93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I50" activeCellId="0" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -714,76 +730,71 @@
       <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -792,75 +803,79 @@
         <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E3" s="4"/>
       <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>2</v>
@@ -872,104 +887,104 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="J5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1</v>
@@ -981,36 +996,36 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -1019,51 +1034,51 @@
         <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="W7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -1072,10 +1087,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1</v>
@@ -1087,31 +1102,31 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="U8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="W8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,10 +1140,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>2</v>
@@ -1143,28 +1158,28 @@
         <v>63</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="W9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,10 +1193,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>2</v>
@@ -1193,31 +1208,31 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="W10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,10 +1246,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>2</v>
@@ -1246,31 +1261,31 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="R11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="U11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="W11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1284,10 +1299,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>2</v>
@@ -1302,15 +1317,15 @@
         <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>1</v>
@@ -1323,9 +1338,9 @@
       </c>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>2</v>
@@ -1336,16 +1351,14 @@
       <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="I14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="1" t="n">
@@ -1388,7 +1401,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>2</v>
@@ -1402,7 +1415,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>3</v>
@@ -1416,7 +1429,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>4</v>
@@ -1430,7 +1443,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>5</v>
@@ -1444,10 +1457,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>1</v>
@@ -1461,10 +1474,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>2</v>
@@ -1478,10 +1491,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>2</v>
@@ -1495,10 +1508,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>2</v>
@@ -1512,10 +1525,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>3</v>
@@ -1529,10 +1542,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>4</v>
@@ -1546,10 +1559,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>5</v>
@@ -1563,7 +1576,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>1</v>
@@ -1577,7 +1590,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>2</v>
@@ -1591,7 +1604,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E29" s="0"/>
       <c r="F29" s="1" t="n">
@@ -1606,7 +1619,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>2</v>
@@ -1620,7 +1633,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>3</v>
@@ -1634,7 +1647,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>4</v>
@@ -1648,7 +1661,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>5</v>
@@ -1662,10 +1675,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>1</v>
@@ -1679,10 +1692,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>2</v>
@@ -1696,10 +1709,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -1713,10 +1726,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="4" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>2</v>
@@ -1730,10 +1743,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>3</v>
@@ -1747,10 +1760,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>4</v>
@@ -1764,10 +1777,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>5</v>
@@ -1837,7 +1850,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -1854,26 +1867,35 @@
         <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2020,10 +2042,10 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="4"/>
       <c r="D62" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2034,97 +2056,97 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="H71" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2135,89 +2157,89 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="I79" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2231,89 +2253,89 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2345,35 +2367,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -2381,31 +2403,31 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2415,12 +2437,12 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -594,8 +594,8 @@
   </sheetPr>
   <dimension ref="A1:AT93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I50" activeCellId="0" sqref="I50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="119">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -110,58 +110,58 @@
     <t xml:space="preserve">Dubai</t>
   </si>
   <si>
+    <t xml:space="preserve">10-October-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndiGo Airlines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu3791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000000000000051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-July-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kochi</t>
+  </si>
+  <si>
     <t xml:space="preserve">18-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hahn Air</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu3791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4000000000000051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John doe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-July-2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndiGo Airlines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kochi</t>
   </si>
   <si>
     <t xml:space="preserve">26-August-2019</t>
@@ -482,7 +482,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -504,10 +504,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:AT93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G46" activeCellId="0" sqref="G46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -738,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
@@ -784,6 +780,9 @@
       </c>
       <c r="W2" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>40</v>
@@ -816,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>31</v>
@@ -863,16 +862,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>47</v>
@@ -934,7 +933,7 @@
         <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>47</v>
@@ -981,7 +980,7 @@
         <v>54</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>47</v>
@@ -1087,7 +1086,7 @@
         <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>47</v>
@@ -1140,7 +1139,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>47</v>
@@ -1193,7 +1192,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>47</v>
@@ -1246,7 +1245,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>47</v>
@@ -1299,7 +1298,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>47</v>
@@ -1358,7 +1357,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="1" t="n">
@@ -1401,7 +1400,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>2</v>
@@ -1415,7 +1414,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>3</v>
@@ -1429,7 +1428,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>4</v>
@@ -1443,7 +1442,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>5</v>
@@ -1491,7 +1490,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>47</v>
@@ -1542,7 +1541,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>47</v>
@@ -1604,7 +1603,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E29" s="0"/>
       <c r="F29" s="1" t="n">
@@ -1619,7 +1618,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>2</v>
@@ -1633,7 +1632,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>3</v>
@@ -1647,7 +1646,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>4</v>
@@ -1661,7 +1660,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>5</v>
@@ -1709,7 +1708,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>47</v>
@@ -1760,7 +1759,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>47</v>
@@ -1878,7 +1877,7 @@
       <c r="G50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H50" s="6" t="n">
+      <c r="H50" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2367,7 +2366,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>114</v>
@@ -2384,13 +2383,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,7 +2404,7 @@
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2442,7 +2441,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -110,7 +110,7 @@
     <t xml:space="preserve">Dubai</t>
   </si>
   <si>
-    <t xml:space="preserve">10-October-2019</t>
+    <t xml:space="preserve">22-August-2019</t>
   </si>
   <si>
     <t xml:space="preserve">IndiGo Airlines</t>
@@ -590,8 +590,8 @@
   </sheetPr>
   <dimension ref="A1:AT93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -713,7 +713,7 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -728,13 +728,13 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>30</v>
@@ -778,7 +778,7 @@
       <c r="V2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="X2" s="1" t="s">

--- a/Travelwings/Data/Test_Data.xlsx
+++ b/Travelwings/Data/Test_Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="120">
   <si>
     <t xml:space="preserve">TestCase</t>
   </si>
@@ -110,51 +110,57 @@
     <t xml:space="preserve">Dubai</t>
   </si>
   <si>
-    <t xml:space="preserve">22-August-2019</t>
+    <t xml:space="preserve">14-January-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-January-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sonu3791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4000000000000051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestCase_LCC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28-July-2019</t>
   </si>
   <si>
     <t xml:space="preserve">IndiGo Airlines</t>
   </si>
   <si>
-    <t xml:space="preserve">sonu.kumar@techtreeit.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sonu3791</t>
-  </si>
-  <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">4000000000000051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John doe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chrome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase_LCC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-July-2019</t>
-  </si>
-  <si>
     <t xml:space="preserve">TestCase_LCC3</t>
   </si>
   <si>
@@ -204,9 +210,6 @@
   </si>
   <si>
     <t xml:space="preserve">TestCase_Amd2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emirates</t>
   </si>
   <si>
     <t xml:space="preserve">TestCase_Amd3</t>
@@ -590,8 +593,8 @@
   </sheetPr>
   <dimension ref="A1:AT93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -600,7 +603,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19"/>
@@ -726,41 +729,25 @@
       <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="F2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="R2" s="4" t="s">
@@ -780,9 +767,6 @@
       </c>
       <c r="W2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>40</v>
@@ -815,31 +799,31 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>34</v>
@@ -862,19 +846,19 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>2</v>
@@ -886,22 +870,22 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>34</v>
@@ -924,31 +908,31 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="F5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>34</v>
@@ -971,19 +955,19 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>1</v>
@@ -995,13 +979,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>34</v>
@@ -1024,7 +1008,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
@@ -1033,10 +1017,10 @@
         <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>1</v>
@@ -1048,13 +1032,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>34</v>
@@ -1077,7 +1061,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
@@ -1086,10 +1070,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>1</v>
@@ -1101,13 +1085,13 @@
         <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>34</v>
@@ -1130,7 +1114,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -1139,10 +1123,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>2</v>
@@ -1154,13 +1138,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>34</v>
@@ -1183,7 +1167,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
@@ -1192,10 +1176,10 @@
         <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>2</v>
@@ -1207,13 +1191,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>34</v>
@@ -1236,7 +1220,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
@@ -1245,10 +1229,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>2</v>
@@ -1260,13 +1244,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>34</v>
@@ -1289,7 +1273,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
@@ -1298,10 +1282,10 @@
         <v>28</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>2</v>
@@ -1313,18 +1297,18 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>1</v>
@@ -1339,7 +1323,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>2</v>
@@ -1357,7 +1341,7 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" s="0"/>
       <c r="F15" s="1" t="n">
@@ -1400,7 +1384,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>2</v>
@@ -1414,7 +1398,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>3</v>
@@ -1428,7 +1412,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>4</v>
@@ -1442,7 +1426,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>5</v>
@@ -1456,10 +1440,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>1</v>
@@ -1473,10 +1457,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>2</v>
@@ -1490,10 +1474,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>2</v>
@@ -1507,10 +1491,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>2</v>
@@ -1524,10 +1508,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>3</v>
@@ -1541,10 +1525,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>4</v>
@@ -1558,10 +1542,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>5</v>
@@ -1575,7 +1559,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>1</v>
@@ -1589,7 +1573,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>2</v>
@@ -1603,7 +1587,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E29" s="0"/>
       <c r="F29" s="1" t="n">
@@ -1618,7 +1602,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>2</v>
@@ -1632,7 +1616,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>3</v>
@@ -1646,7 +1630,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>4</v>
@@ -1660,7 +1644,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>5</v>
@@ -1674,10 +1658,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>1</v>
@@ -1691,10 +1675,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>2</v>
@@ -1708,10 +1692,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>2</v>
@@ -1725,10 +1709,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>2</v>
@@ -1742,10 +1726,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>3</v>
@@ -1759,10 +1743,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>4</v>
@@ -1776,10 +1760,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>5</v>
@@ -1849,7 +1833,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -1866,10 +1850,10 @@
         <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>1</v>
@@ -1883,18 +1867,18 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,10 +2025,10 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="4"/>
       <c r="D62" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2055,36 +2039,36 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>40</v>
@@ -2092,28 +2076,28 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>40</v>
@@ -2121,28 +2105,28 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>40</v>
@@ -2156,28 +2140,28 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>40</v>
@@ -2185,28 +2169,28 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>40</v>
@@ -2214,28 +2198,28 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>40</v>
@@ -2252,28 +2236,28 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>40</v>
@@ -2281,28 +2265,28 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>40</v>
@@ -2310,28 +2294,28 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>40</v>
@@ -2366,35 +2350,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>27</v>
@@ -2402,46 +2386,46 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
